--- a/storage/imports/Global.xlsx
+++ b/storage/imports/Global.xlsx
@@ -21452,7 +21452,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="60">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C143" s="65" t="s">
         <v>350</v>
